--- a/10_Planning/DOE OQ Final Melting.xlsx
+++ b/10_Planning/DOE OQ Final Melting.xlsx
@@ -1,28 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svegorov\Nextcloud\SPValidations\Validations\SP_Val_2\10_Planning\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Dict" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Plan" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Dict" sheetId="1" r:id="rId1"/>
+    <sheet name="Plan" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Threshold_koeff">#REF!</definedName>
-    <definedName name="ПараметрыLZM" hidden="0">Dict!$F$2:$K$4</definedName>
+    <definedName name="ПараметрыLZM">Dict!$F$2:$K$4</definedName>
   </definedNames>
-  <calcPr/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" name="Qwen__20250513_75cguv6ws" type="6" background="1" refreshedVersion="6" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Qwen__20250513_75cguv6ws" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="C:\Users\svegorov\Downloads\Qwen__20250513_75cguv6ws.txt" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="7">
         <textField/>
@@ -39,15 +42,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>Фактор</t>
   </si>
   <si>
-    <t xml:space="preserve">Уровень -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Уровень +</t>
+    <t>Уровень -</t>
+  </si>
+  <si>
+    <t>Уровень +</t>
   </si>
   <si>
     <t>Комментарий</t>
@@ -56,13 +59,7 @@
     <t>LP</t>
   </si>
   <si>
-    <t xml:space="preserve">SP + 215 bit</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SP + 260 bit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Уровень мощности источника лазерного излучения во время операции доплавки.</t>
+    <t>Уровень мощности источника лазерного излучения во время операции доплавки.</t>
   </si>
   <si>
     <t>Уровень</t>
@@ -86,7 +83,7 @@
     <t>40ms</t>
   </si>
   <si>
-    <t xml:space="preserve">Задержка включения лазера после начала вращения колбы</t>
+    <t>Задержка включения лазера после начала вращения колбы</t>
   </si>
   <si>
     <t>6000ms</t>
@@ -95,52 +92,52 @@
     <t>8000ms</t>
   </si>
   <si>
-    <t xml:space="preserve">Минимальное время воздействия лазера. Но оператор может нажать Reset для остановки процесса.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0,120 гр/ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0,145 гр/ms</t>
+    <t>Минимальное время воздействия лазера. Но оператор может нажать Reset для остановки процесса.</t>
+  </si>
+  <si>
+    <t> 0,120 гр/ms</t>
+  </si>
+  <si>
+    <t>  0,145 гр/ms</t>
   </si>
   <si>
     <t xml:space="preserve">Скорость вращения колбы </t>
   </si>
   <si>
-    <t xml:space="preserve">LT_F + 1000 ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LT_F + 2000 ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Минимальное время вращения. Задача – обеспечить вращение после прекращения воздействия лазера.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Модель капилляра</t>
-  </si>
-  <si>
-    <t xml:space="preserve">№ опыта</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standard order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A (LP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B (RS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C (LT_S)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D (OR_F) = AB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E (LT_F) = AC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID образцов</t>
+    <t>LT_F + 1000 ms</t>
+  </si>
+  <si>
+    <t>LT_F + 2000 ms</t>
+  </si>
+  <si>
+    <t>Минимальное время вращения. Задача – обеспечить вращение после прекращения воздействия лазера.</t>
+  </si>
+  <si>
+    <t>Модель капилляра</t>
+  </si>
+  <si>
+    <t>№ опыта</t>
+  </si>
+  <si>
+    <t>Standard order</t>
+  </si>
+  <si>
+    <t>A (LP)</t>
+  </si>
+  <si>
+    <t>B (RS)</t>
+  </si>
+  <si>
+    <t>C (LT_S)</t>
+  </si>
+  <si>
+    <t>D (OR_F) = AB</t>
+  </si>
+  <si>
+    <t>E (LT_F) = AC</t>
+  </si>
+  <si>
+    <t>ID образцов</t>
   </si>
   <si>
     <t>Столбец1</t>
@@ -149,53 +146,67 @@
     <t>OR_S_val</t>
   </si>
   <si>
-    <t xml:space="preserve">ОТ 0111.471-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОТ 0111.471-03</t>
+    <t>ОТ 0111.471-02</t>
+  </si>
+  <si>
+    <t>ОТ 0111.471-03</t>
+  </si>
+  <si>
+    <t>SP + 290 bit</t>
+  </si>
+  <si>
+    <t> SP + 330 bit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.000000"/>
+      <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.000000"/>
+      <sz val="9"/>
       <color theme="0"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -221,11 +232,11 @@
   </fills>
   <borders count="3">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -240,7 +251,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -255,71 +266,231 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="1" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="2" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="5" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="6" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="6" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="6" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="3" fillId="3" borderId="2" numFmtId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
+    <cellStyle name="60% — акцент1" xfId="1" builtinId="32"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
-    <cellStyle name="60% - Accent1" xfId="2" builtinId="32"/>
   </cellStyles>
   <dxfs count="11">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" shrinkToFit="0"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" shrinkToFit="0"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" shrinkToFit="0"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" shrinkToFit="0"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" shrinkToFit="0"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" shrinkToFit="0"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" shrinkToFit="0"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -327,13 +498,13 @@
         <strike val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10.000000"/>
+        <sz val="10"/>
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" indent="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" shrinkToFit="0"/>
       <border>
-        <left style="none"/>
+        <left/>
         <right style="thin">
           <color auto="1"/>
         </right>
@@ -343,174 +514,6 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-        <diagonal style="none"/>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" indent="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <diagonal style="none"/>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" indent="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <diagonal style="none"/>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" indent="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <diagonal style="none"/>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" indent="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <diagonal style="none"/>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" indent="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <diagonal style="none"/>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" indent="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <diagonal style="none"/>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" indent="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="none"/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <diagonal style="none"/>
         <vertical style="thin">
           <color auto="1"/>
         </vertical>
@@ -522,8 +525,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor indexed="65"/>
+          <fgColor rgb="FFDDF2F0"/>
+          <bgColor rgb="FFDDF2F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -538,17 +541,17 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFDDF2F0"/>
-          <bgColor rgb="FFDDF2F0"/>
+          <fgColor indexed="65"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Dict-style" pivot="0" count="3">
-      <tableStyleElement type="firstRowStripe" size="1" dxfId="8"/>
-      <tableStyleElement type="headerRow" size="1" dxfId="9"/>
-      <tableStyleElement type="secondRowStripe" size="1" dxfId="10"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="firstRowStripe" dxfId="10"/>
+      <tableStyleElement type="secondRowStripe" dxfId="8"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -563,307 +566,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" displayName="Таблица1" ref="B1:J9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="B1:J9">
   <tableColumns count="9">
-    <tableColumn id="1" name="№ опыта" dataDxfId="0"/>
-    <tableColumn id="2" name="Standard order" dataDxfId="1"/>
-    <tableColumn id="3" name="A (LP)" dataDxfId="2"/>
-    <tableColumn id="4" name="B (RS)" dataDxfId="3"/>
-    <tableColumn id="5" name="C (LT_S)" dataDxfId="4"/>
-    <tableColumn id="6" name="D (OR_F) = AB" dataDxfId="5"/>
-    <tableColumn id="7" name="E (LT_F) = AC" dataDxfId="6"/>
-    <tableColumn id="8" name="ID образцов" dataDxfId="7"/>
+    <tableColumn id="1" name="№ опыта" dataDxfId="7"/>
+    <tableColumn id="2" name="Standard order" dataDxfId="6"/>
+    <tableColumn id="3" name="A (LP)" dataDxfId="5"/>
+    <tableColumn id="4" name="B (RS)" dataDxfId="4"/>
+    <tableColumn id="5" name="C (LT_S)" dataDxfId="3"/>
+    <tableColumn id="6" name="D (OR_F) = AB" dataDxfId="2"/>
+    <tableColumn id="7" name="E (LT_F) = AC" dataDxfId="1"/>
+    <tableColumn id="8" name="ID образцов" dataDxfId="0"/>
     <tableColumn id="9" name="Столбец1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1066,29 +786,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="0" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="16.42578125"/>
-    <col customWidth="1" min="3" max="3" width="29.85546875"/>
-    <col customWidth="1" min="4" max="4" width="26"/>
-    <col customWidth="1" min="11" max="11" width="14.57421875"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75">
+    <row r="1" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1102,57 +823,57 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="51">
+    <row r="2" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" ht="38.25">
-      <c r="A3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="F3" s="9">
         <v>-1</v>
       </c>
       <c r="G3" s="4" t="str">
         <f>B2</f>
-        <v xml:space="preserve">SP + 215 bit</v>
+        <v>SP + 290 bit</v>
       </c>
       <c r="H3" s="4" t="str">
         <f>B3</f>
@@ -1164,32 +885,32 @@
       </c>
       <c r="J3" s="4" t="str">
         <f>B5</f>
-        <v xml:space="preserve"> 0,120 гр/ms</v>
+        <v> 0,120 гр/ms</v>
       </c>
       <c r="K3" s="4" t="str">
         <f>B6</f>
-        <v xml:space="preserve">LT_F + 1000 ms</v>
-      </c>
-    </row>
-    <row r="4" ht="63.75">
+        <v>LT_F + 1000 ms</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="F4" s="9">
         <v>1</v>
       </c>
       <c r="G4" s="4" t="str">
         <f>C2</f>
-        <v xml:space="preserve"> SP + 260 bit</v>
+        <v> SP + 330 bit</v>
       </c>
       <c r="H4" s="4" t="str">
         <f>C3</f>
@@ -1201,129 +922,128 @@
       </c>
       <c r="J4" s="4" t="str">
         <f>C5</f>
-        <v xml:space="preserve">  0,145 гр/ms</v>
+        <v>  0,145 гр/ms</v>
       </c>
       <c r="K4" s="4" t="str">
         <f>C6</f>
-        <v xml:space="preserve">LT_F + 2000 ms</v>
-      </c>
-    </row>
-    <row r="5" ht="12.75">
+        <v>LT_F + 2000 ms</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" ht="63.75">
-      <c r="A6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>24</v>
-      </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="H9" activeCellId="0" sqref="A1:H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.140625"/>
-    <col customWidth="1" min="2" max="2" style="11" width="8.421875"/>
-    <col customWidth="1" min="3" max="3" width="11.140625"/>
-    <col customWidth="1" min="4" max="4" width="8.42578125"/>
-    <col customWidth="1" min="5" max="5" width="8.7109375"/>
-    <col customWidth="1" min="6" max="6" width="10.42578125"/>
-    <col customWidth="1" min="7" max="7" width="13.57421875"/>
-    <col customWidth="1" min="8" max="8" width="12.8515625"/>
-    <col customWidth="1" min="9" max="9" width="20.421875"/>
-    <col customWidth="1" min="10" max="10" width="13.00390625"/>
-    <col bestFit="1" min="12" max="12" width="11.7109375"/>
-    <col customWidth="1" min="13" max="13" width="11.00390625"/>
-    <col customWidth="1" min="14" max="14" width="10.8515625"/>
-    <col customWidth="1" min="15" max="16" width="15.00390625"/>
-    <col customWidth="1" min="17" max="17" width="18.7109375"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" customWidth="1"/>
+    <col min="15" max="16" width="15" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" ht="22.5">
+    <row r="1" spans="1:17" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="L1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="Q1" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="14" t="s">
-        <v>36</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -1351,36 +1071,36 @@
         <v>OQ_qfd_02_6_1..03</v>
       </c>
       <c r="J2" t="str">
-        <f>MID(I2,8,6)</f>
+        <f t="shared" ref="J2:J10" si="0">MID(I2,8,6)</f>
         <v>02_6_1</v>
       </c>
       <c r="L2" s="16" t="str">
-        <f>VLOOKUP(D2,ПараметрыLZM,2)</f>
-        <v xml:space="preserve"> SP + 260 bit</v>
+        <f t="shared" ref="L2:L17" si="1">VLOOKUP(D2,ПараметрыLZM,2)</f>
+        <v> SP + 330 bit</v>
       </c>
       <c r="M2" s="16" t="str">
-        <f>VLOOKUP(E2,ПараметрыLZM,3)</f>
+        <f t="shared" ref="M2:M17" si="2">VLOOKUP(E2,ПараметрыLZM,3)</f>
         <v>30ms</v>
       </c>
       <c r="N2" s="17" t="str">
-        <f>VLOOKUP(F2,ПараметрыLZM,4)</f>
+        <f t="shared" ref="N2:N17" si="3">VLOOKUP(F2,ПараметрыLZM,4)</f>
         <v>8000ms</v>
       </c>
       <c r="O2" s="17" t="str">
-        <f>VLOOKUP(G2,ПараметрыLZM,5)</f>
-        <v xml:space="preserve"> 0,120 гр/ms</v>
+        <f t="shared" ref="O2:O17" si="4">VLOOKUP(G2,ПараметрыLZM,5)</f>
+        <v> 0,120 гр/ms</v>
       </c>
       <c r="P2" s="17">
         <v>0</v>
       </c>
       <c r="Q2" s="17" t="str">
-        <f>VLOOKUP(H2,ПараметрыLZM,6)</f>
-        <v xml:space="preserve">LT_F + 2000 ms</v>
-      </c>
-    </row>
-    <row r="3">
+        <f t="shared" ref="Q2:Q17" si="5">VLOOKUP(H2,ПараметрыLZM,6)</f>
+        <v>LT_F + 2000 ms</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" s="15">
         <v>2</v>
@@ -1408,36 +1128,36 @@
         <v>OQ_qfd_02_2_1..03</v>
       </c>
       <c r="J3" t="str">
-        <f>MID(I3,8,6)</f>
+        <f t="shared" si="0"/>
         <v>02_2_1</v>
       </c>
       <c r="L3" s="16" t="str">
-        <f>VLOOKUP(D3,ПараметрыLZM,2)</f>
-        <v xml:space="preserve"> SP + 260 bit</v>
+        <f t="shared" si="1"/>
+        <v> SP + 330 bit</v>
       </c>
       <c r="M3" s="16" t="str">
-        <f>VLOOKUP(E3,ПараметрыLZM,3)</f>
+        <f t="shared" si="2"/>
         <v>30ms</v>
       </c>
       <c r="N3" s="17" t="str">
-        <f>VLOOKUP(F3,ПараметрыLZM,4)</f>
+        <f t="shared" si="3"/>
         <v>6000ms</v>
       </c>
       <c r="O3" s="17" t="str">
-        <f>VLOOKUP(G3,ПараметрыLZM,5)</f>
-        <v xml:space="preserve"> 0,120 гр/ms</v>
+        <f t="shared" si="4"/>
+        <v> 0,120 гр/ms</v>
       </c>
       <c r="P3" s="17">
         <v>0</v>
       </c>
       <c r="Q3" s="17" t="str">
-        <f>VLOOKUP(H3,ПараметрыLZM,6)</f>
-        <v xml:space="preserve">LT_F + 1000 ms</v>
-      </c>
-    </row>
-    <row r="4">
+        <f t="shared" si="5"/>
+        <v>LT_F + 1000 ms</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" s="15">
         <v>3</v>
@@ -1465,36 +1185,36 @@
         <v>OQ_qfd_02_3_1..03</v>
       </c>
       <c r="J4" t="str">
-        <f>MID(I4,8,6)</f>
+        <f t="shared" si="0"/>
         <v>02_3_1</v>
       </c>
       <c r="L4" s="16" t="str">
-        <f>VLOOKUP(D4,ПараметрыLZM,2)</f>
-        <v xml:space="preserve">SP + 215 bit</v>
+        <f t="shared" si="1"/>
+        <v>SP + 290 bit</v>
       </c>
       <c r="M4" s="16" t="str">
-        <f>VLOOKUP(E4,ПараметрыLZM,3)</f>
+        <f t="shared" si="2"/>
         <v>40ms</v>
       </c>
       <c r="N4" s="17" t="str">
-        <f>VLOOKUP(F4,ПараметрыLZM,4)</f>
+        <f t="shared" si="3"/>
         <v>6000ms</v>
       </c>
       <c r="O4" s="17" t="str">
-        <f>VLOOKUP(G4,ПараметрыLZM,5)</f>
-        <v xml:space="preserve"> 0,120 гр/ms</v>
+        <f t="shared" si="4"/>
+        <v> 0,120 гр/ms</v>
       </c>
       <c r="P4" s="17">
         <v>0</v>
       </c>
       <c r="Q4" s="17" t="str">
-        <f>VLOOKUP(H4,ПараметрыLZM,6)</f>
-        <v xml:space="preserve">LT_F + 2000 ms</v>
-      </c>
-    </row>
-    <row r="5">
+        <f t="shared" si="5"/>
+        <v>LT_F + 2000 ms</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" s="15">
         <v>4</v>
@@ -1522,36 +1242,36 @@
         <v>OQ_qfd_02_7_1..03</v>
       </c>
       <c r="J5" t="str">
-        <f>MID(I5,8,6)</f>
+        <f t="shared" si="0"/>
         <v>02_7_1</v>
       </c>
       <c r="L5" s="16" t="str">
-        <f>VLOOKUP(D5,ПараметрыLZM,2)</f>
-        <v xml:space="preserve">SP + 215 bit</v>
+        <f t="shared" si="1"/>
+        <v>SP + 290 bit</v>
       </c>
       <c r="M5" s="16" t="str">
-        <f>VLOOKUP(E5,ПараметрыLZM,3)</f>
+        <f t="shared" si="2"/>
         <v>40ms</v>
       </c>
       <c r="N5" s="17" t="str">
-        <f>VLOOKUP(F5,ПараметрыLZM,4)</f>
+        <f t="shared" si="3"/>
         <v>8000ms</v>
       </c>
       <c r="O5" s="17" t="str">
-        <f>VLOOKUP(G5,ПараметрыLZM,5)</f>
-        <v xml:space="preserve"> 0,120 гр/ms</v>
+        <f t="shared" si="4"/>
+        <v> 0,120 гр/ms</v>
       </c>
       <c r="P5" s="17">
         <v>0</v>
       </c>
       <c r="Q5" s="17" t="str">
-        <f>VLOOKUP(H5,ПараметрыLZM,6)</f>
-        <v xml:space="preserve">LT_F + 1000 ms</v>
-      </c>
-    </row>
-    <row r="6">
+        <f t="shared" si="5"/>
+        <v>LT_F + 1000 ms</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" s="15">
         <v>5</v>
@@ -1579,36 +1299,36 @@
         <v>OQ_qfd_02_8_1..03</v>
       </c>
       <c r="J6" t="str">
-        <f>MID(I6,8,6)</f>
+        <f t="shared" si="0"/>
         <v>02_8_1</v>
       </c>
       <c r="L6" s="16" t="str">
-        <f>VLOOKUP(D6,ПараметрыLZM,2)</f>
-        <v xml:space="preserve"> SP + 260 bit</v>
+        <f t="shared" si="1"/>
+        <v> SP + 330 bit</v>
       </c>
       <c r="M6" s="16" t="str">
-        <f>VLOOKUP(E6,ПараметрыLZM,3)</f>
+        <f t="shared" si="2"/>
         <v>40ms</v>
       </c>
       <c r="N6" s="17" t="str">
-        <f>VLOOKUP(F6,ПараметрыLZM,4)</f>
+        <f t="shared" si="3"/>
         <v>8000ms</v>
       </c>
       <c r="O6" s="17" t="str">
-        <f>VLOOKUP(G6,ПараметрыLZM,5)</f>
-        <v xml:space="preserve">  0,145 гр/ms</v>
+        <f t="shared" si="4"/>
+        <v>  0,145 гр/ms</v>
       </c>
       <c r="P6" s="17">
         <v>0</v>
       </c>
       <c r="Q6" s="17" t="str">
-        <f>VLOOKUP(H6,ПараметрыLZM,6)</f>
-        <v xml:space="preserve">LT_F + 2000 ms</v>
-      </c>
-    </row>
-    <row r="7">
+        <f t="shared" si="5"/>
+        <v>LT_F + 2000 ms</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B7" s="15">
         <v>6</v>
@@ -1636,36 +1356,36 @@
         <v>OQ_qfd_02_4_1..03</v>
       </c>
       <c r="J7" t="str">
-        <f>MID(I7,8,6)</f>
+        <f t="shared" si="0"/>
         <v>02_4_1</v>
       </c>
       <c r="L7" s="16" t="str">
-        <f>VLOOKUP(D7,ПараметрыLZM,2)</f>
-        <v xml:space="preserve"> SP + 260 bit</v>
+        <f t="shared" si="1"/>
+        <v> SP + 330 bit</v>
       </c>
       <c r="M7" s="16" t="str">
-        <f>VLOOKUP(E7,ПараметрыLZM,3)</f>
+        <f t="shared" si="2"/>
         <v>40ms</v>
       </c>
       <c r="N7" s="17" t="str">
-        <f>VLOOKUP(F7,ПараметрыLZM,4)</f>
+        <f t="shared" si="3"/>
         <v>6000ms</v>
       </c>
       <c r="O7" s="17" t="str">
-        <f>VLOOKUP(G7,ПараметрыLZM,5)</f>
-        <v xml:space="preserve">  0,145 гр/ms</v>
+        <f t="shared" si="4"/>
+        <v>  0,145 гр/ms</v>
       </c>
       <c r="P7" s="17">
         <v>0</v>
       </c>
       <c r="Q7" s="17" t="str">
-        <f>VLOOKUP(H7,ПараметрыLZM,6)</f>
-        <v xml:space="preserve">LT_F + 1000 ms</v>
-      </c>
-    </row>
-    <row r="8">
+        <f t="shared" si="5"/>
+        <v>LT_F + 1000 ms</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" s="15">
         <v>7</v>
@@ -1693,36 +1413,36 @@
         <v>OQ_qfd_02_1_1..03</v>
       </c>
       <c r="J8" t="str">
-        <f>MID(I8,8,6)</f>
+        <f t="shared" si="0"/>
         <v>02_1_1</v>
       </c>
       <c r="L8" s="16" t="str">
-        <f>VLOOKUP(D8,ПараметрыLZM,2)</f>
-        <v xml:space="preserve">SP + 215 bit</v>
+        <f t="shared" si="1"/>
+        <v>SP + 290 bit</v>
       </c>
       <c r="M8" s="16" t="str">
-        <f>VLOOKUP(E8,ПараметрыLZM,3)</f>
+        <f t="shared" si="2"/>
         <v>30ms</v>
       </c>
       <c r="N8" s="17" t="str">
-        <f>VLOOKUP(F8,ПараметрыLZM,4)</f>
+        <f t="shared" si="3"/>
         <v>6000ms</v>
       </c>
       <c r="O8" s="17" t="str">
-        <f>VLOOKUP(G8,ПараметрыLZM,5)</f>
-        <v xml:space="preserve">  0,145 гр/ms</v>
+        <f t="shared" si="4"/>
+        <v>  0,145 гр/ms</v>
       </c>
       <c r="P8" s="17">
         <v>0</v>
       </c>
       <c r="Q8" s="17" t="str">
-        <f>VLOOKUP(H8,ПараметрыLZM,6)</f>
-        <v xml:space="preserve">LT_F + 2000 ms</v>
-      </c>
-    </row>
-    <row r="9">
+        <f t="shared" si="5"/>
+        <v>LT_F + 2000 ms</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B9" s="15">
         <v>8</v>
@@ -1750,36 +1470,36 @@
         <v>OQ_qfd_02_5_1..03</v>
       </c>
       <c r="J9" t="str">
-        <f>MID(I9,8,6)</f>
+        <f t="shared" si="0"/>
         <v>02_5_1</v>
       </c>
       <c r="L9" s="16" t="str">
-        <f>VLOOKUP(D9,ПараметрыLZM,2)</f>
-        <v xml:space="preserve">SP + 215 bit</v>
+        <f t="shared" si="1"/>
+        <v>SP + 290 bit</v>
       </c>
       <c r="M9" s="16" t="str">
-        <f>VLOOKUP(E9,ПараметрыLZM,3)</f>
+        <f t="shared" si="2"/>
         <v>30ms</v>
       </c>
       <c r="N9" s="17" t="str">
-        <f>VLOOKUP(F9,ПараметрыLZM,4)</f>
+        <f t="shared" si="3"/>
         <v>8000ms</v>
       </c>
       <c r="O9" s="17" t="str">
-        <f>VLOOKUP(G9,ПараметрыLZM,5)</f>
-        <v xml:space="preserve">  0,145 гр/ms</v>
+        <f t="shared" si="4"/>
+        <v>  0,145 гр/ms</v>
       </c>
       <c r="P9" s="17">
         <v>0</v>
       </c>
       <c r="Q9" s="17" t="str">
-        <f>VLOOKUP(H9,ПараметрыLZM,6)</f>
-        <v xml:space="preserve">LT_F + 1000 ms</v>
-      </c>
-    </row>
-    <row r="10" ht="12.75">
+        <f t="shared" si="5"/>
+        <v>LT_F + 1000 ms</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" s="15">
         <v>9</v>
@@ -1803,40 +1523,40 @@
         <v>1</v>
       </c>
       <c r="I10" s="15" t="str">
-        <f t="shared" ref="I10:I17" si="0">"OQ_qfd_03_"&amp;C10&amp;"_1..03"</f>
+        <f t="shared" ref="I10:I17" si="6">"OQ_qfd_03_"&amp;C10&amp;"_1..03"</f>
         <v>OQ_qfd_03_9_1..03</v>
       </c>
       <c r="J10" t="str">
-        <f>MID(I10,8,6)</f>
+        <f t="shared" si="0"/>
         <v>03_9_1</v>
       </c>
       <c r="L10" s="16" t="str">
-        <f>VLOOKUP(D10,ПараметрыLZM,2)</f>
-        <v xml:space="preserve">SP + 215 bit</v>
+        <f t="shared" si="1"/>
+        <v>SP + 290 bit</v>
       </c>
       <c r="M10" s="16" t="str">
-        <f>VLOOKUP(E10,ПараметрыLZM,3)</f>
+        <f t="shared" si="2"/>
         <v>30ms</v>
       </c>
       <c r="N10" s="17" t="str">
-        <f>VLOOKUP(F10,ПараметрыLZM,4)</f>
+        <f t="shared" si="3"/>
         <v>6000ms</v>
       </c>
       <c r="O10" s="17" t="str">
-        <f>VLOOKUP(G10,ПараметрыLZM,5)</f>
-        <v xml:space="preserve">  0,145 гр/ms</v>
+        <f t="shared" si="4"/>
+        <v>  0,145 гр/ms</v>
       </c>
       <c r="P10" s="17">
         <v>0</v>
       </c>
       <c r="Q10" s="17" t="str">
-        <f>VLOOKUP(H10,ПараметрыLZM,6)</f>
-        <v xml:space="preserve">LT_F + 2000 ms</v>
-      </c>
-    </row>
-    <row r="11" ht="12.75">
+        <f t="shared" si="5"/>
+        <v>LT_F + 2000 ms</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" s="15">
         <v>10</v>
@@ -1860,40 +1580,40 @@
         <v>1</v>
       </c>
       <c r="I11" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>OQ_qfd_03_16_1..03</v>
       </c>
       <c r="J11" t="str">
-        <f>MID(I11,8,7)</f>
+        <f t="shared" ref="J11:J17" si="7">MID(I11,8,7)</f>
         <v>03_16_1</v>
       </c>
       <c r="L11" s="16" t="str">
-        <f>VLOOKUP(D11,ПараметрыLZM,2)</f>
-        <v xml:space="preserve"> SP + 260 bit</v>
+        <f t="shared" si="1"/>
+        <v> SP + 330 bit</v>
       </c>
       <c r="M11" s="16" t="str">
-        <f>VLOOKUP(E11,ПараметрыLZM,3)</f>
+        <f t="shared" si="2"/>
         <v>40ms</v>
       </c>
       <c r="N11" s="17" t="str">
-        <f>VLOOKUP(F11,ПараметрыLZM,4)</f>
+        <f t="shared" si="3"/>
         <v>8000ms</v>
       </c>
       <c r="O11" s="17" t="str">
-        <f>VLOOKUP(G11,ПараметрыLZM,5)</f>
-        <v xml:space="preserve">  0,145 гр/ms</v>
+        <f t="shared" si="4"/>
+        <v>  0,145 гр/ms</v>
       </c>
       <c r="P11" s="17">
         <v>0</v>
       </c>
       <c r="Q11" s="17" t="str">
-        <f>VLOOKUP(H11,ПараметрыLZM,6)</f>
-        <v xml:space="preserve">LT_F + 2000 ms</v>
-      </c>
-    </row>
-    <row r="12" ht="12.75">
+        <f t="shared" si="5"/>
+        <v>LT_F + 2000 ms</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" s="15">
         <v>11</v>
@@ -1917,40 +1637,40 @@
         <v>-1</v>
       </c>
       <c r="I12" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>OQ_qfd_03_10_1..03</v>
       </c>
       <c r="J12" t="str">
-        <f>MID(I12,8,7)</f>
+        <f t="shared" si="7"/>
         <v>03_10_1</v>
       </c>
       <c r="L12" s="16" t="str">
-        <f>VLOOKUP(D12,ПараметрыLZM,2)</f>
-        <v xml:space="preserve"> SP + 260 bit</v>
+        <f t="shared" si="1"/>
+        <v> SP + 330 bit</v>
       </c>
       <c r="M12" s="16" t="str">
-        <f>VLOOKUP(E12,ПараметрыLZM,3)</f>
+        <f t="shared" si="2"/>
         <v>30ms</v>
       </c>
       <c r="N12" s="17" t="str">
-        <f>VLOOKUP(F12,ПараметрыLZM,4)</f>
+        <f t="shared" si="3"/>
         <v>6000ms</v>
       </c>
       <c r="O12" s="17" t="str">
-        <f>VLOOKUP(G12,ПараметрыLZM,5)</f>
-        <v xml:space="preserve"> 0,120 гр/ms</v>
+        <f t="shared" si="4"/>
+        <v> 0,120 гр/ms</v>
       </c>
       <c r="P12" s="17">
         <v>0</v>
       </c>
       <c r="Q12" s="17" t="str">
-        <f>VLOOKUP(H12,ПараметрыLZM,6)</f>
-        <v xml:space="preserve">LT_F + 1000 ms</v>
-      </c>
-    </row>
-    <row r="13" ht="12.75">
+        <f t="shared" si="5"/>
+        <v>LT_F + 1000 ms</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" s="15">
         <v>12</v>
@@ -1974,40 +1694,40 @@
         <v>-1</v>
       </c>
       <c r="I13" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>OQ_qfd_03_12_1..03</v>
       </c>
       <c r="J13" t="str">
-        <f>MID(I13,8,7)</f>
+        <f t="shared" si="7"/>
         <v>03_12_1</v>
       </c>
       <c r="L13" s="16" t="str">
-        <f>VLOOKUP(D13,ПараметрыLZM,2)</f>
-        <v xml:space="preserve"> SP + 260 bit</v>
+        <f t="shared" si="1"/>
+        <v> SP + 330 bit</v>
       </c>
       <c r="M13" s="16" t="str">
-        <f>VLOOKUP(E13,ПараметрыLZM,3)</f>
+        <f t="shared" si="2"/>
         <v>40ms</v>
       </c>
       <c r="N13" s="17" t="str">
-        <f>VLOOKUP(F13,ПараметрыLZM,4)</f>
+        <f t="shared" si="3"/>
         <v>6000ms</v>
       </c>
       <c r="O13" s="17" t="str">
-        <f>VLOOKUP(G13,ПараметрыLZM,5)</f>
-        <v xml:space="preserve">  0,145 гр/ms</v>
+        <f t="shared" si="4"/>
+        <v>  0,145 гр/ms</v>
       </c>
       <c r="P13" s="17">
         <v>0</v>
       </c>
       <c r="Q13" s="17" t="str">
-        <f>VLOOKUP(H13,ПараметрыLZM,6)</f>
-        <v xml:space="preserve">LT_F + 1000 ms</v>
-      </c>
-    </row>
-    <row r="14" ht="12.75">
+        <f t="shared" si="5"/>
+        <v>LT_F + 1000 ms</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" s="15">
         <v>13</v>
@@ -2031,40 +1751,40 @@
         <v>1</v>
       </c>
       <c r="I14" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>OQ_qfd_03_14_1..03</v>
       </c>
       <c r="J14" t="str">
-        <f>MID(I14,8,7)</f>
+        <f t="shared" si="7"/>
         <v>03_14_1</v>
       </c>
       <c r="L14" s="16" t="str">
-        <f>VLOOKUP(D14,ПараметрыLZM,2)</f>
-        <v xml:space="preserve"> SP + 260 bit</v>
+        <f t="shared" si="1"/>
+        <v> SP + 330 bit</v>
       </c>
       <c r="M14" s="16" t="str">
-        <f>VLOOKUP(E14,ПараметрыLZM,3)</f>
+        <f t="shared" si="2"/>
         <v>30ms</v>
       </c>
       <c r="N14" s="17" t="str">
-        <f>VLOOKUP(F14,ПараметрыLZM,4)</f>
+        <f t="shared" si="3"/>
         <v>8000ms</v>
       </c>
       <c r="O14" s="17" t="str">
-        <f>VLOOKUP(G14,ПараметрыLZM,5)</f>
-        <v xml:space="preserve"> 0,120 гр/ms</v>
+        <f t="shared" si="4"/>
+        <v> 0,120 гр/ms</v>
       </c>
       <c r="P14" s="17">
         <v>0</v>
       </c>
       <c r="Q14" s="17" t="str">
-        <f>VLOOKUP(H14,ПараметрыLZM,6)</f>
-        <v xml:space="preserve">LT_F + 2000 ms</v>
-      </c>
-    </row>
-    <row r="15" ht="12.75">
+        <f t="shared" si="5"/>
+        <v>LT_F + 2000 ms</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B15" s="15">
         <v>14</v>
@@ -2088,40 +1808,40 @@
         <v>-1</v>
       </c>
       <c r="I15" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>OQ_qfd_03_13_1..03</v>
       </c>
       <c r="J15" t="str">
-        <f>MID(I15,8,7)</f>
+        <f t="shared" si="7"/>
         <v>03_13_1</v>
       </c>
       <c r="L15" s="16" t="str">
-        <f>VLOOKUP(D15,ПараметрыLZM,2)</f>
-        <v xml:space="preserve">SP + 215 bit</v>
+        <f t="shared" si="1"/>
+        <v>SP + 290 bit</v>
       </c>
       <c r="M15" s="16" t="str">
-        <f>VLOOKUP(E15,ПараметрыLZM,3)</f>
+        <f t="shared" si="2"/>
         <v>30ms</v>
       </c>
       <c r="N15" s="17" t="str">
-        <f>VLOOKUP(F15,ПараметрыLZM,4)</f>
+        <f t="shared" si="3"/>
         <v>8000ms</v>
       </c>
       <c r="O15" s="17" t="str">
-        <f>VLOOKUP(G15,ПараметрыLZM,5)</f>
-        <v xml:space="preserve">  0,145 гр/ms</v>
+        <f t="shared" si="4"/>
+        <v>  0,145 гр/ms</v>
       </c>
       <c r="P15" s="17">
         <v>0</v>
       </c>
       <c r="Q15" s="17" t="str">
-        <f>VLOOKUP(H15,ПараметрыLZM,6)</f>
-        <v xml:space="preserve">LT_F + 1000 ms</v>
-      </c>
-    </row>
-    <row r="16" ht="12.75">
+        <f t="shared" si="5"/>
+        <v>LT_F + 1000 ms</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" s="15">
         <v>15</v>
@@ -2145,40 +1865,40 @@
         <v>-1</v>
       </c>
       <c r="I16" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>OQ_qfd_03_15_1..03</v>
       </c>
       <c r="J16" t="str">
-        <f>MID(I16,8,7)</f>
+        <f t="shared" si="7"/>
         <v>03_15_1</v>
       </c>
       <c r="L16" s="16" t="str">
-        <f>VLOOKUP(D16,ПараметрыLZM,2)</f>
-        <v xml:space="preserve">SP + 215 bit</v>
+        <f t="shared" si="1"/>
+        <v>SP + 290 bit</v>
       </c>
       <c r="M16" s="16" t="str">
-        <f>VLOOKUP(E16,ПараметрыLZM,3)</f>
+        <f t="shared" si="2"/>
         <v>40ms</v>
       </c>
       <c r="N16" s="17" t="str">
-        <f>VLOOKUP(F16,ПараметрыLZM,4)</f>
+        <f t="shared" si="3"/>
         <v>8000ms</v>
       </c>
       <c r="O16" s="17" t="str">
-        <f>VLOOKUP(G16,ПараметрыLZM,5)</f>
-        <v xml:space="preserve"> 0,120 гр/ms</v>
+        <f t="shared" si="4"/>
+        <v> 0,120 гр/ms</v>
       </c>
       <c r="P16" s="17">
         <v>0</v>
       </c>
       <c r="Q16" s="17" t="str">
-        <f>VLOOKUP(H16,ПараметрыLZM,6)</f>
-        <v xml:space="preserve">LT_F + 1000 ms</v>
-      </c>
-    </row>
-    <row r="17" ht="12.75">
+        <f t="shared" si="5"/>
+        <v>LT_F + 1000 ms</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" s="15">
         <v>16</v>
@@ -2202,46 +1922,43 @@
         <v>1</v>
       </c>
       <c r="I17" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>OQ_qfd_03_11_1..03</v>
       </c>
       <c r="J17" t="str">
-        <f>MID(I17,8,7)</f>
+        <f t="shared" si="7"/>
         <v>03_11_1</v>
       </c>
       <c r="L17" s="16" t="str">
-        <f>VLOOKUP(D17,ПараметрыLZM,2)</f>
-        <v xml:space="preserve">SP + 215 bit</v>
+        <f t="shared" si="1"/>
+        <v>SP + 290 bit</v>
       </c>
       <c r="M17" s="16" t="str">
-        <f>VLOOKUP(E17,ПараметрыLZM,3)</f>
+        <f t="shared" si="2"/>
         <v>40ms</v>
       </c>
       <c r="N17" s="17" t="str">
-        <f>VLOOKUP(F17,ПараметрыLZM,4)</f>
+        <f t="shared" si="3"/>
         <v>6000ms</v>
       </c>
       <c r="O17" s="17" t="str">
-        <f>VLOOKUP(G17,ПараметрыLZM,5)</f>
-        <v xml:space="preserve"> 0,120 гр/ms</v>
+        <f t="shared" si="4"/>
+        <v> 0,120 гр/ms</v>
       </c>
       <c r="P17" s="17">
         <v>0</v>
       </c>
       <c r="Q17" s="17" t="str">
-        <f>VLOOKUP(H17,ПараметрыLZM,6)</f>
-        <v xml:space="preserve">LT_F + 2000 ms</v>
-      </c>
-    </row>
-    <row r="18" ht="12.75"/>
+        <f t="shared" si="5"/>
+        <v>LT_F + 2000 ms</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A10:J17" columnSort="0">
-    <sortCondition sortBy="value" descending="0" ref="B10:B17"/>
+  <sortState ref="A10:J17">
+    <sortCondition ref="B10:B17"/>
   </sortState>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="0" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/10_Planning/DOE OQ Final Melting.xlsx
+++ b/10_Planning/DOE OQ Final Melting.xlsx
@@ -1,31 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svegorov\Nextcloud\SPValidations\Validations\SP_Val_2\10_Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\lzm-validation\10_Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCCA103-E449-4F3C-97B4-CAED1076E143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dict" sheetId="1" r:id="rId1"/>
     <sheet name="Plan" sheetId="2" r:id="rId2"/>
+    <sheet name="Calcs" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Threshold_koeff">#REF!</definedName>
     <definedName name="ПараметрыLZM">Dict!$F$2:$K$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Qwen__20250513_75cguv6ws" type="6" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Qwen__20250513_75cguv6ws" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="C:\Users\svegorov\Downloads\Qwen__20250513_75cguv6ws.txt" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="7">
         <textField/>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
   <si>
     <t>Фактор</t>
   </si>
@@ -156,13 +158,28 @@
   </si>
   <si>
     <t> SP + 330 bit</t>
+  </si>
+  <si>
+    <t>шаг</t>
+  </si>
+  <si>
+    <t>LP*LT_S</t>
+  </si>
+  <si>
+    <t>LP*RS</t>
+  </si>
+  <si>
+    <t>FMPR</t>
+  </si>
+  <si>
+    <t>k</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -200,8 +217,22 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,6 +258,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDF2F0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -273,7 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -299,24 +336,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -325,6 +351,28 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="60% — акцент1" xfId="1" builtinId="32"/>
@@ -533,24 +581,24 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF26A69A"/>
-          <bgColor rgb="FF26A69A"/>
+          <fgColor indexed="65"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor indexed="65"/>
+          <fgColor rgb="FF26A69A"/>
+          <bgColor rgb="FF26A69A"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Dict-style" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="firstRowStripe" dxfId="10"/>
+    <tableStyle name="Dict-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="10"/>
+      <tableStyleElement type="firstRowStripe" dxfId="9"/>
       <tableStyleElement type="secondRowStripe" dxfId="8"/>
     </tableStyle>
   </tableStyles>
@@ -566,17 +614,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="B1:J9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица1" displayName="Таблица1" ref="B1:J9">
   <tableColumns count="9">
-    <tableColumn id="1" name="№ опыта" dataDxfId="7"/>
-    <tableColumn id="2" name="Standard order" dataDxfId="6"/>
-    <tableColumn id="3" name="A (LP)" dataDxfId="5"/>
-    <tableColumn id="4" name="B (RS)" dataDxfId="4"/>
-    <tableColumn id="5" name="C (LT_S)" dataDxfId="3"/>
-    <tableColumn id="6" name="D (OR_F) = AB" dataDxfId="2"/>
-    <tableColumn id="7" name="E (LT_F) = AC" dataDxfId="1"/>
-    <tableColumn id="8" name="ID образцов" dataDxfId="0"/>
-    <tableColumn id="9" name="Столбец1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№ опыта" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Standard order" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="A (LP)" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="B (RS)" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="C (LT_S)" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="D (OR_F) = AB" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="E (LT_F) = AC" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="ID образцов" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Столбец1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -791,14 +839,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -827,10 +875,10 @@
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -868,7 +916,7 @@
       <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="4">
         <v>-1</v>
       </c>
       <c r="G3" s="4" t="str">
@@ -905,7 +953,7 @@
       <c r="D4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="4">
         <v>1</v>
       </c>
       <c r="G4" s="4" t="str">
@@ -936,13 +984,12 @@
       <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
@@ -965,17 +1012,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" customWidth="1"/>
@@ -991,82 +1038,82 @@
     <col min="17" max="17" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:17" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="15">
-        <v>1</v>
-      </c>
-      <c r="C2" s="15">
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11">
         <v>6</v>
       </c>
-      <c r="D2" s="15">
-        <v>1</v>
-      </c>
-      <c r="E2" s="15">
-        <v>-1</v>
-      </c>
-      <c r="F2" s="15">
-        <v>1</v>
-      </c>
-      <c r="G2" s="15">
-        <v>-1</v>
-      </c>
-      <c r="H2" s="15">
-        <v>1</v>
-      </c>
-      <c r="I2" s="15" t="str">
+      <c r="D2" s="11">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F2" s="11">
+        <v>1</v>
+      </c>
+      <c r="G2" s="11">
+        <v>-1</v>
+      </c>
+      <c r="H2" s="11">
+        <v>1</v>
+      </c>
+      <c r="I2" s="11" t="str">
         <f>"OQ_qfd_02_"&amp;Таблица1[[#This Row],[Standard order]]&amp;"_1..03"</f>
         <v>OQ_qfd_02_6_1..03</v>
       </c>
@@ -1074,56 +1121,56 @@
         <f t="shared" ref="J2:J10" si="0">MID(I2,8,6)</f>
         <v>02_6_1</v>
       </c>
-      <c r="L2" s="16" t="str">
+      <c r="L2" s="12" t="str">
         <f t="shared" ref="L2:L17" si="1">VLOOKUP(D2,ПараметрыLZM,2)</f>
         <v> SP + 330 bit</v>
       </c>
-      <c r="M2" s="16" t="str">
+      <c r="M2" s="12" t="str">
         <f t="shared" ref="M2:M17" si="2">VLOOKUP(E2,ПараметрыLZM,3)</f>
         <v>30ms</v>
       </c>
-      <c r="N2" s="17" t="str">
+      <c r="N2" s="12" t="str">
         <f t="shared" ref="N2:N17" si="3">VLOOKUP(F2,ПараметрыLZM,4)</f>
         <v>8000ms</v>
       </c>
-      <c r="O2" s="17" t="str">
+      <c r="O2" s="12" t="str">
         <f t="shared" ref="O2:O17" si="4">VLOOKUP(G2,ПараметрыLZM,5)</f>
         <v> 0,120 гр/ms</v>
       </c>
-      <c r="P2" s="17">
+      <c r="P2" s="12">
         <v>0</v>
       </c>
-      <c r="Q2" s="17" t="str">
+      <c r="Q2" s="12" t="str">
         <f t="shared" ref="Q2:Q17" si="5">VLOOKUP(H2,ПараметрыLZM,6)</f>
         <v>LT_F + 2000 ms</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="11">
         <v>2</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="11">
         <v>2</v>
       </c>
-      <c r="D3" s="15">
-        <v>1</v>
-      </c>
-      <c r="E3" s="15">
-        <v>-1</v>
-      </c>
-      <c r="F3" s="15">
-        <v>-1</v>
-      </c>
-      <c r="G3" s="15">
-        <v>-1</v>
-      </c>
-      <c r="H3" s="15">
-        <v>-1</v>
-      </c>
-      <c r="I3" s="15" t="str">
+      <c r="D3" s="11">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F3" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G3" s="11">
+        <v>-1</v>
+      </c>
+      <c r="H3" s="11">
+        <v>-1</v>
+      </c>
+      <c r="I3" s="11" t="str">
         <f>"OQ_qfd_02_"&amp;Таблица1[[#This Row],[Standard order]]&amp;"_1..03"</f>
         <v>OQ_qfd_02_2_1..03</v>
       </c>
@@ -1131,56 +1178,56 @@
         <f t="shared" si="0"/>
         <v>02_2_1</v>
       </c>
-      <c r="L3" s="16" t="str">
+      <c r="L3" s="12" t="str">
         <f t="shared" si="1"/>
         <v> SP + 330 bit</v>
       </c>
-      <c r="M3" s="16" t="str">
+      <c r="M3" s="12" t="str">
         <f t="shared" si="2"/>
         <v>30ms</v>
       </c>
-      <c r="N3" s="17" t="str">
+      <c r="N3" s="12" t="str">
         <f t="shared" si="3"/>
         <v>6000ms</v>
       </c>
-      <c r="O3" s="17" t="str">
+      <c r="O3" s="12" t="str">
         <f t="shared" si="4"/>
         <v> 0,120 гр/ms</v>
       </c>
-      <c r="P3" s="17">
+      <c r="P3" s="12">
         <v>0</v>
       </c>
-      <c r="Q3" s="17" t="str">
+      <c r="Q3" s="12" t="str">
         <f t="shared" si="5"/>
         <v>LT_F + 1000 ms</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="11">
         <v>3</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="11">
         <v>3</v>
       </c>
-      <c r="D4" s="15">
-        <v>-1</v>
-      </c>
-      <c r="E4" s="15">
-        <v>1</v>
-      </c>
-      <c r="F4" s="15">
-        <v>-1</v>
-      </c>
-      <c r="G4" s="15">
-        <v>-1</v>
-      </c>
-      <c r="H4" s="15">
-        <v>1</v>
-      </c>
-      <c r="I4" s="15" t="str">
+      <c r="D4" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1</v>
+      </c>
+      <c r="F4" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="11">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="11">
+        <v>1</v>
+      </c>
+      <c r="I4" s="11" t="str">
         <f>"OQ_qfd_02_"&amp;Таблица1[[#This Row],[Standard order]]&amp;"_1..03"</f>
         <v>OQ_qfd_02_3_1..03</v>
       </c>
@@ -1188,56 +1235,56 @@
         <f t="shared" si="0"/>
         <v>02_3_1</v>
       </c>
-      <c r="L4" s="16" t="str">
+      <c r="L4" s="12" t="str">
         <f t="shared" si="1"/>
         <v>SP + 290 bit</v>
       </c>
-      <c r="M4" s="16" t="str">
+      <c r="M4" s="12" t="str">
         <f t="shared" si="2"/>
         <v>40ms</v>
       </c>
-      <c r="N4" s="17" t="str">
+      <c r="N4" s="12" t="str">
         <f t="shared" si="3"/>
         <v>6000ms</v>
       </c>
-      <c r="O4" s="17" t="str">
+      <c r="O4" s="12" t="str">
         <f t="shared" si="4"/>
         <v> 0,120 гр/ms</v>
       </c>
-      <c r="P4" s="17">
+      <c r="P4" s="12">
         <v>0</v>
       </c>
-      <c r="Q4" s="17" t="str">
+      <c r="Q4" s="12" t="str">
         <f t="shared" si="5"/>
         <v>LT_F + 2000 ms</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="11">
         <v>4</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="11">
         <v>7</v>
       </c>
-      <c r="D5" s="15">
-        <v>-1</v>
-      </c>
-      <c r="E5" s="15">
-        <v>1</v>
-      </c>
-      <c r="F5" s="15">
-        <v>1</v>
-      </c>
-      <c r="G5" s="15">
-        <v>-1</v>
-      </c>
-      <c r="H5" s="15">
-        <v>-1</v>
-      </c>
-      <c r="I5" s="15" t="str">
+      <c r="D5" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1</v>
+      </c>
+      <c r="G5" s="11">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="11">
+        <v>-1</v>
+      </c>
+      <c r="I5" s="11" t="str">
         <f>"OQ_qfd_02_"&amp;Таблица1[[#This Row],[Standard order]]&amp;"_1..03"</f>
         <v>OQ_qfd_02_7_1..03</v>
       </c>
@@ -1245,56 +1292,56 @@
         <f t="shared" si="0"/>
         <v>02_7_1</v>
       </c>
-      <c r="L5" s="16" t="str">
+      <c r="L5" s="12" t="str">
         <f t="shared" si="1"/>
         <v>SP + 290 bit</v>
       </c>
-      <c r="M5" s="16" t="str">
+      <c r="M5" s="12" t="str">
         <f t="shared" si="2"/>
         <v>40ms</v>
       </c>
-      <c r="N5" s="17" t="str">
+      <c r="N5" s="12" t="str">
         <f t="shared" si="3"/>
         <v>8000ms</v>
       </c>
-      <c r="O5" s="17" t="str">
+      <c r="O5" s="12" t="str">
         <f t="shared" si="4"/>
         <v> 0,120 гр/ms</v>
       </c>
-      <c r="P5" s="17">
+      <c r="P5" s="12">
         <v>0</v>
       </c>
-      <c r="Q5" s="17" t="str">
+      <c r="Q5" s="12" t="str">
         <f t="shared" si="5"/>
         <v>LT_F + 1000 ms</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="11">
         <v>5</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="11">
         <v>8</v>
       </c>
-      <c r="D6" s="15">
-        <v>1</v>
-      </c>
-      <c r="E6" s="15">
-        <v>1</v>
-      </c>
-      <c r="F6" s="15">
-        <v>1</v>
-      </c>
-      <c r="G6" s="15">
-        <v>1</v>
-      </c>
-      <c r="H6" s="15">
-        <v>1</v>
-      </c>
-      <c r="I6" s="15" t="str">
+      <c r="D6" s="11">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11">
+        <v>1</v>
+      </c>
+      <c r="I6" s="11" t="str">
         <f>"OQ_qfd_02_"&amp;Таблица1[[#This Row],[Standard order]]&amp;"_1..03"</f>
         <v>OQ_qfd_02_8_1..03</v>
       </c>
@@ -1302,56 +1349,56 @@
         <f t="shared" si="0"/>
         <v>02_8_1</v>
       </c>
-      <c r="L6" s="16" t="str">
+      <c r="L6" s="12" t="str">
         <f t="shared" si="1"/>
         <v> SP + 330 bit</v>
       </c>
-      <c r="M6" s="16" t="str">
+      <c r="M6" s="12" t="str">
         <f t="shared" si="2"/>
         <v>40ms</v>
       </c>
-      <c r="N6" s="17" t="str">
+      <c r="N6" s="12" t="str">
         <f t="shared" si="3"/>
         <v>8000ms</v>
       </c>
-      <c r="O6" s="17" t="str">
+      <c r="O6" s="12" t="str">
         <f t="shared" si="4"/>
         <v>  0,145 гр/ms</v>
       </c>
-      <c r="P6" s="17">
+      <c r="P6" s="12">
         <v>0</v>
       </c>
-      <c r="Q6" s="17" t="str">
+      <c r="Q6" s="12" t="str">
         <f t="shared" si="5"/>
         <v>LT_F + 2000 ms</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="11">
         <v>6</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="11">
         <v>4</v>
       </c>
-      <c r="D7" s="15">
-        <v>1</v>
-      </c>
-      <c r="E7" s="15">
-        <v>1</v>
-      </c>
-      <c r="F7" s="15">
-        <v>-1</v>
-      </c>
-      <c r="G7" s="15">
-        <v>1</v>
-      </c>
-      <c r="H7" s="15">
-        <v>-1</v>
-      </c>
-      <c r="I7" s="15" t="str">
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1</v>
+      </c>
+      <c r="F7" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="11" t="str">
         <f>"OQ_qfd_02_"&amp;Таблица1[[#This Row],[Standard order]]&amp;"_1..03"</f>
         <v>OQ_qfd_02_4_1..03</v>
       </c>
@@ -1359,56 +1406,56 @@
         <f t="shared" si="0"/>
         <v>02_4_1</v>
       </c>
-      <c r="L7" s="16" t="str">
+      <c r="L7" s="12" t="str">
         <f t="shared" si="1"/>
         <v> SP + 330 bit</v>
       </c>
-      <c r="M7" s="16" t="str">
+      <c r="M7" s="12" t="str">
         <f t="shared" si="2"/>
         <v>40ms</v>
       </c>
-      <c r="N7" s="17" t="str">
+      <c r="N7" s="12" t="str">
         <f t="shared" si="3"/>
         <v>6000ms</v>
       </c>
-      <c r="O7" s="17" t="str">
+      <c r="O7" s="12" t="str">
         <f t="shared" si="4"/>
         <v>  0,145 гр/ms</v>
       </c>
-      <c r="P7" s="17">
+      <c r="P7" s="12">
         <v>0</v>
       </c>
-      <c r="Q7" s="17" t="str">
+      <c r="Q7" s="12" t="str">
         <f t="shared" si="5"/>
         <v>LT_F + 1000 ms</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="11">
         <v>7</v>
       </c>
-      <c r="C8" s="15">
-        <v>1</v>
-      </c>
-      <c r="D8" s="15">
-        <v>-1</v>
-      </c>
-      <c r="E8" s="15">
-        <v>-1</v>
-      </c>
-      <c r="F8" s="15">
-        <v>-1</v>
-      </c>
-      <c r="G8" s="15">
-        <v>1</v>
-      </c>
-      <c r="H8" s="15">
-        <v>1</v>
-      </c>
-      <c r="I8" s="15" t="str">
+      <c r="C8" s="11">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F8" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="11">
+        <v>1</v>
+      </c>
+      <c r="H8" s="11">
+        <v>1</v>
+      </c>
+      <c r="I8" s="11" t="str">
         <f>"OQ_qfd_02_"&amp;Таблица1[[#This Row],[Standard order]]&amp;"_1..03"</f>
         <v>OQ_qfd_02_1_1..03</v>
       </c>
@@ -1416,56 +1463,56 @@
         <f t="shared" si="0"/>
         <v>02_1_1</v>
       </c>
-      <c r="L8" s="16" t="str">
+      <c r="L8" s="12" t="str">
         <f t="shared" si="1"/>
         <v>SP + 290 bit</v>
       </c>
-      <c r="M8" s="16" t="str">
+      <c r="M8" s="12" t="str">
         <f t="shared" si="2"/>
         <v>30ms</v>
       </c>
-      <c r="N8" s="17" t="str">
+      <c r="N8" s="12" t="str">
         <f t="shared" si="3"/>
         <v>6000ms</v>
       </c>
-      <c r="O8" s="17" t="str">
+      <c r="O8" s="12" t="str">
         <f t="shared" si="4"/>
         <v>  0,145 гр/ms</v>
       </c>
-      <c r="P8" s="17">
+      <c r="P8" s="12">
         <v>0</v>
       </c>
-      <c r="Q8" s="17" t="str">
+      <c r="Q8" s="12" t="str">
         <f t="shared" si="5"/>
         <v>LT_F + 2000 ms</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="11">
         <v>8</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="11">
         <v>5</v>
       </c>
-      <c r="D9" s="15">
-        <v>-1</v>
-      </c>
-      <c r="E9" s="15">
-        <v>-1</v>
-      </c>
-      <c r="F9" s="15">
-        <v>1</v>
-      </c>
-      <c r="G9" s="15">
-        <v>1</v>
-      </c>
-      <c r="H9" s="15">
-        <v>-1</v>
-      </c>
-      <c r="I9" s="15" t="str">
+      <c r="D9" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1</v>
+      </c>
+      <c r="G9" s="11">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11">
+        <v>-1</v>
+      </c>
+      <c r="I9" s="11" t="str">
         <f>"OQ_qfd_02_"&amp;Таблица1[[#This Row],[Standard order]]&amp;"_1..03"</f>
         <v>OQ_qfd_02_5_1..03</v>
       </c>
@@ -1473,56 +1520,56 @@
         <f t="shared" si="0"/>
         <v>02_5_1</v>
       </c>
-      <c r="L9" s="16" t="str">
+      <c r="L9" s="12" t="str">
         <f t="shared" si="1"/>
         <v>SP + 290 bit</v>
       </c>
-      <c r="M9" s="16" t="str">
+      <c r="M9" s="12" t="str">
         <f t="shared" si="2"/>
         <v>30ms</v>
       </c>
-      <c r="N9" s="17" t="str">
+      <c r="N9" s="12" t="str">
         <f t="shared" si="3"/>
         <v>8000ms</v>
       </c>
-      <c r="O9" s="17" t="str">
+      <c r="O9" s="12" t="str">
         <f t="shared" si="4"/>
         <v>  0,145 гр/ms</v>
       </c>
-      <c r="P9" s="17">
+      <c r="P9" s="12">
         <v>0</v>
       </c>
-      <c r="Q9" s="17" t="str">
+      <c r="Q9" s="12" t="str">
         <f t="shared" si="5"/>
         <v>LT_F + 1000 ms</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="11">
         <v>9</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="11">
         <v>9</v>
       </c>
-      <c r="D10" s="15">
-        <v>-1</v>
-      </c>
-      <c r="E10" s="15">
-        <v>-1</v>
-      </c>
-      <c r="F10" s="15">
-        <v>-1</v>
-      </c>
-      <c r="G10" s="15">
-        <v>1</v>
-      </c>
-      <c r="H10" s="15">
-        <v>1</v>
-      </c>
-      <c r="I10" s="15" t="str">
+      <c r="D10" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E10" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F10" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="11">
+        <v>1</v>
+      </c>
+      <c r="H10" s="11">
+        <v>1</v>
+      </c>
+      <c r="I10" s="11" t="str">
         <f t="shared" ref="I10:I17" si="6">"OQ_qfd_03_"&amp;C10&amp;"_1..03"</f>
         <v>OQ_qfd_03_9_1..03</v>
       </c>
@@ -1530,56 +1577,56 @@
         <f t="shared" si="0"/>
         <v>03_9_1</v>
       </c>
-      <c r="L10" s="16" t="str">
+      <c r="L10" s="12" t="str">
         <f t="shared" si="1"/>
         <v>SP + 290 bit</v>
       </c>
-      <c r="M10" s="16" t="str">
+      <c r="M10" s="12" t="str">
         <f t="shared" si="2"/>
         <v>30ms</v>
       </c>
-      <c r="N10" s="17" t="str">
+      <c r="N10" s="12" t="str">
         <f t="shared" si="3"/>
         <v>6000ms</v>
       </c>
-      <c r="O10" s="17" t="str">
+      <c r="O10" s="12" t="str">
         <f t="shared" si="4"/>
         <v>  0,145 гр/ms</v>
       </c>
-      <c r="P10" s="17">
+      <c r="P10" s="12">
         <v>0</v>
       </c>
-      <c r="Q10" s="17" t="str">
+      <c r="Q10" s="12" t="str">
         <f t="shared" si="5"/>
         <v>LT_F + 2000 ms</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="11">
         <v>10</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="11">
         <v>16</v>
       </c>
-      <c r="D11" s="15">
-        <v>1</v>
-      </c>
-      <c r="E11" s="15">
-        <v>1</v>
-      </c>
-      <c r="F11" s="15">
-        <v>1</v>
-      </c>
-      <c r="G11" s="15">
-        <v>1</v>
-      </c>
-      <c r="H11" s="15">
-        <v>1</v>
-      </c>
-      <c r="I11" s="15" t="str">
+      <c r="D11" s="11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="11" t="str">
         <f t="shared" si="6"/>
         <v>OQ_qfd_03_16_1..03</v>
       </c>
@@ -1587,56 +1634,56 @@
         <f t="shared" ref="J11:J17" si="7">MID(I11,8,7)</f>
         <v>03_16_1</v>
       </c>
-      <c r="L11" s="16" t="str">
+      <c r="L11" s="12" t="str">
         <f t="shared" si="1"/>
         <v> SP + 330 bit</v>
       </c>
-      <c r="M11" s="16" t="str">
+      <c r="M11" s="12" t="str">
         <f t="shared" si="2"/>
         <v>40ms</v>
       </c>
-      <c r="N11" s="17" t="str">
+      <c r="N11" s="12" t="str">
         <f t="shared" si="3"/>
         <v>8000ms</v>
       </c>
-      <c r="O11" s="17" t="str">
+      <c r="O11" s="12" t="str">
         <f t="shared" si="4"/>
         <v>  0,145 гр/ms</v>
       </c>
-      <c r="P11" s="17">
+      <c r="P11" s="12">
         <v>0</v>
       </c>
-      <c r="Q11" s="17" t="str">
+      <c r="Q11" s="12" t="str">
         <f t="shared" si="5"/>
         <v>LT_F + 2000 ms</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="11">
         <v>11</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="11">
         <v>10</v>
       </c>
-      <c r="D12" s="15">
-        <v>1</v>
-      </c>
-      <c r="E12" s="15">
-        <v>-1</v>
-      </c>
-      <c r="F12" s="15">
-        <v>-1</v>
-      </c>
-      <c r="G12" s="15">
-        <v>-1</v>
-      </c>
-      <c r="H12" s="15">
-        <v>-1</v>
-      </c>
-      <c r="I12" s="15" t="str">
+      <c r="D12" s="11">
+        <v>1</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F12" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-1</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-1</v>
+      </c>
+      <c r="I12" s="11" t="str">
         <f t="shared" si="6"/>
         <v>OQ_qfd_03_10_1..03</v>
       </c>
@@ -1644,56 +1691,56 @@
         <f t="shared" si="7"/>
         <v>03_10_1</v>
       </c>
-      <c r="L12" s="16" t="str">
+      <c r="L12" s="12" t="str">
         <f t="shared" si="1"/>
         <v> SP + 330 bit</v>
       </c>
-      <c r="M12" s="16" t="str">
+      <c r="M12" s="12" t="str">
         <f t="shared" si="2"/>
         <v>30ms</v>
       </c>
-      <c r="N12" s="17" t="str">
+      <c r="N12" s="12" t="str">
         <f t="shared" si="3"/>
         <v>6000ms</v>
       </c>
-      <c r="O12" s="17" t="str">
+      <c r="O12" s="12" t="str">
         <f t="shared" si="4"/>
         <v> 0,120 гр/ms</v>
       </c>
-      <c r="P12" s="17">
+      <c r="P12" s="12">
         <v>0</v>
       </c>
-      <c r="Q12" s="17" t="str">
+      <c r="Q12" s="12" t="str">
         <f t="shared" si="5"/>
         <v>LT_F + 1000 ms</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="11">
         <v>12</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="11">
         <v>12</v>
       </c>
-      <c r="D13" s="15">
-        <v>1</v>
-      </c>
-      <c r="E13" s="15">
-        <v>1</v>
-      </c>
-      <c r="F13" s="15">
-        <v>-1</v>
-      </c>
-      <c r="G13" s="15">
-        <v>1</v>
-      </c>
-      <c r="H13" s="15">
-        <v>-1</v>
-      </c>
-      <c r="I13" s="15" t="str">
+      <c r="D13" s="11">
+        <v>1</v>
+      </c>
+      <c r="E13" s="11">
+        <v>1</v>
+      </c>
+      <c r="F13" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="11">
+        <v>1</v>
+      </c>
+      <c r="H13" s="11">
+        <v>-1</v>
+      </c>
+      <c r="I13" s="11" t="str">
         <f t="shared" si="6"/>
         <v>OQ_qfd_03_12_1..03</v>
       </c>
@@ -1701,56 +1748,56 @@
         <f t="shared" si="7"/>
         <v>03_12_1</v>
       </c>
-      <c r="L13" s="16" t="str">
+      <c r="L13" s="12" t="str">
         <f t="shared" si="1"/>
         <v> SP + 330 bit</v>
       </c>
-      <c r="M13" s="16" t="str">
+      <c r="M13" s="12" t="str">
         <f t="shared" si="2"/>
         <v>40ms</v>
       </c>
-      <c r="N13" s="17" t="str">
+      <c r="N13" s="12" t="str">
         <f t="shared" si="3"/>
         <v>6000ms</v>
       </c>
-      <c r="O13" s="17" t="str">
+      <c r="O13" s="12" t="str">
         <f t="shared" si="4"/>
         <v>  0,145 гр/ms</v>
       </c>
-      <c r="P13" s="17">
+      <c r="P13" s="12">
         <v>0</v>
       </c>
-      <c r="Q13" s="17" t="str">
+      <c r="Q13" s="12" t="str">
         <f t="shared" si="5"/>
         <v>LT_F + 1000 ms</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="11">
         <v>13</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="11">
         <v>14</v>
       </c>
-      <c r="D14" s="15">
-        <v>1</v>
-      </c>
-      <c r="E14" s="15">
-        <v>-1</v>
-      </c>
-      <c r="F14" s="15">
-        <v>1</v>
-      </c>
-      <c r="G14" s="15">
-        <v>-1</v>
-      </c>
-      <c r="H14" s="15">
-        <v>1</v>
-      </c>
-      <c r="I14" s="15" t="str">
+      <c r="D14" s="11">
+        <v>1</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F14" s="11">
+        <v>1</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-1</v>
+      </c>
+      <c r="H14" s="11">
+        <v>1</v>
+      </c>
+      <c r="I14" s="11" t="str">
         <f t="shared" si="6"/>
         <v>OQ_qfd_03_14_1..03</v>
       </c>
@@ -1758,56 +1805,56 @@
         <f t="shared" si="7"/>
         <v>03_14_1</v>
       </c>
-      <c r="L14" s="16" t="str">
+      <c r="L14" s="12" t="str">
         <f t="shared" si="1"/>
         <v> SP + 330 bit</v>
       </c>
-      <c r="M14" s="16" t="str">
+      <c r="M14" s="12" t="str">
         <f t="shared" si="2"/>
         <v>30ms</v>
       </c>
-      <c r="N14" s="17" t="str">
+      <c r="N14" s="12" t="str">
         <f t="shared" si="3"/>
         <v>8000ms</v>
       </c>
-      <c r="O14" s="17" t="str">
+      <c r="O14" s="12" t="str">
         <f t="shared" si="4"/>
         <v> 0,120 гр/ms</v>
       </c>
-      <c r="P14" s="17">
+      <c r="P14" s="12">
         <v>0</v>
       </c>
-      <c r="Q14" s="17" t="str">
+      <c r="Q14" s="12" t="str">
         <f t="shared" si="5"/>
         <v>LT_F + 2000 ms</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="11">
         <v>14</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="11">
         <v>13</v>
       </c>
-      <c r="D15" s="15">
-        <v>-1</v>
-      </c>
-      <c r="E15" s="15">
-        <v>-1</v>
-      </c>
-      <c r="F15" s="15">
-        <v>1</v>
-      </c>
-      <c r="G15" s="15">
-        <v>1</v>
-      </c>
-      <c r="H15" s="15">
-        <v>-1</v>
-      </c>
-      <c r="I15" s="15" t="str">
+      <c r="D15" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E15" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F15" s="11">
+        <v>1</v>
+      </c>
+      <c r="G15" s="11">
+        <v>1</v>
+      </c>
+      <c r="H15" s="11">
+        <v>-1</v>
+      </c>
+      <c r="I15" s="11" t="str">
         <f t="shared" si="6"/>
         <v>OQ_qfd_03_13_1..03</v>
       </c>
@@ -1815,56 +1862,56 @@
         <f t="shared" si="7"/>
         <v>03_13_1</v>
       </c>
-      <c r="L15" s="16" t="str">
+      <c r="L15" s="12" t="str">
         <f t="shared" si="1"/>
         <v>SP + 290 bit</v>
       </c>
-      <c r="M15" s="16" t="str">
+      <c r="M15" s="12" t="str">
         <f t="shared" si="2"/>
         <v>30ms</v>
       </c>
-      <c r="N15" s="17" t="str">
+      <c r="N15" s="12" t="str">
         <f t="shared" si="3"/>
         <v>8000ms</v>
       </c>
-      <c r="O15" s="17" t="str">
+      <c r="O15" s="12" t="str">
         <f t="shared" si="4"/>
         <v>  0,145 гр/ms</v>
       </c>
-      <c r="P15" s="17">
+      <c r="P15" s="12">
         <v>0</v>
       </c>
-      <c r="Q15" s="17" t="str">
+      <c r="Q15" s="12" t="str">
         <f t="shared" si="5"/>
         <v>LT_F + 1000 ms</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="11">
         <v>15</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="11">
         <v>15</v>
       </c>
-      <c r="D16" s="15">
-        <v>-1</v>
-      </c>
-      <c r="E16" s="15">
-        <v>1</v>
-      </c>
-      <c r="F16" s="15">
-        <v>1</v>
-      </c>
-      <c r="G16" s="15">
-        <v>-1</v>
-      </c>
-      <c r="H16" s="15">
-        <v>-1</v>
-      </c>
-      <c r="I16" s="15" t="str">
+      <c r="D16" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E16" s="11">
+        <v>1</v>
+      </c>
+      <c r="F16" s="11">
+        <v>1</v>
+      </c>
+      <c r="G16" s="11">
+        <v>-1</v>
+      </c>
+      <c r="H16" s="11">
+        <v>-1</v>
+      </c>
+      <c r="I16" s="11" t="str">
         <f t="shared" si="6"/>
         <v>OQ_qfd_03_15_1..03</v>
       </c>
@@ -1872,56 +1919,56 @@
         <f t="shared" si="7"/>
         <v>03_15_1</v>
       </c>
-      <c r="L16" s="16" t="str">
+      <c r="L16" s="12" t="str">
         <f t="shared" si="1"/>
         <v>SP + 290 bit</v>
       </c>
-      <c r="M16" s="16" t="str">
+      <c r="M16" s="12" t="str">
         <f t="shared" si="2"/>
         <v>40ms</v>
       </c>
-      <c r="N16" s="17" t="str">
+      <c r="N16" s="12" t="str">
         <f t="shared" si="3"/>
         <v>8000ms</v>
       </c>
-      <c r="O16" s="17" t="str">
+      <c r="O16" s="12" t="str">
         <f t="shared" si="4"/>
         <v> 0,120 гр/ms</v>
       </c>
-      <c r="P16" s="17">
+      <c r="P16" s="12">
         <v>0</v>
       </c>
-      <c r="Q16" s="17" t="str">
+      <c r="Q16" s="12" t="str">
         <f t="shared" si="5"/>
         <v>LT_F + 1000 ms</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="11">
         <v>16</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="11">
         <v>11</v>
       </c>
-      <c r="D17" s="15">
-        <v>-1</v>
-      </c>
-      <c r="E17" s="15">
-        <v>1</v>
-      </c>
-      <c r="F17" s="15">
-        <v>-1</v>
-      </c>
-      <c r="G17" s="15">
-        <v>-1</v>
-      </c>
-      <c r="H17" s="15">
-        <v>1</v>
-      </c>
-      <c r="I17" s="15" t="str">
+      <c r="D17" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E17" s="11">
+        <v>1</v>
+      </c>
+      <c r="F17" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G17" s="11">
+        <v>-1</v>
+      </c>
+      <c r="H17" s="11">
+        <v>1</v>
+      </c>
+      <c r="I17" s="11" t="str">
         <f t="shared" si="6"/>
         <v>OQ_qfd_03_11_1..03</v>
       </c>
@@ -1929,32 +1976,32 @@
         <f t="shared" si="7"/>
         <v>03_11_1</v>
       </c>
-      <c r="L17" s="16" t="str">
+      <c r="L17" s="12" t="str">
         <f t="shared" si="1"/>
         <v>SP + 290 bit</v>
       </c>
-      <c r="M17" s="16" t="str">
+      <c r="M17" s="12" t="str">
         <f t="shared" si="2"/>
         <v>40ms</v>
       </c>
-      <c r="N17" s="17" t="str">
+      <c r="N17" s="12" t="str">
         <f t="shared" si="3"/>
         <v>6000ms</v>
       </c>
-      <c r="O17" s="17" t="str">
+      <c r="O17" s="12" t="str">
         <f t="shared" si="4"/>
         <v> 0,120 гр/ms</v>
       </c>
-      <c r="P17" s="17">
+      <c r="P17" s="12">
         <v>0</v>
       </c>
-      <c r="Q17" s="17" t="str">
+      <c r="Q17" s="12" t="str">
         <f t="shared" si="5"/>
         <v>LT_F + 2000 ms</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A10:J17">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:J17">
     <sortCondition ref="B10:B17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1963,4 +2010,280 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB46042-25D5-4E26-9789-C7743895CDE5}">
+  <dimension ref="B3:J14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>290</v>
+      </c>
+      <c r="D4">
+        <v>330</v>
+      </c>
+      <c r="E4">
+        <f>(D4+C4)/2</f>
+        <v>310</v>
+      </c>
+      <c r="F4">
+        <f>D4-E4</f>
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <f>E4+F4*J4</f>
+        <v>290</v>
+      </c>
+      <c r="J4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>0.12</v>
+      </c>
+      <c r="D5">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="E5">
+        <f>(D5+C5)/2</f>
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="F5">
+        <f>D5-E5</f>
+        <v>1.2499999999999983E-2</v>
+      </c>
+      <c r="G5">
+        <f>E5+F5*J5</f>
+        <v>0.15924999999999997</v>
+      </c>
+      <c r="J5">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <f>(D6+C6)/2</f>
+        <v>35</v>
+      </c>
+      <c r="F6">
+        <f>D6-E6</f>
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <f>E6+F6*J6</f>
+        <v>34.299999999999997</v>
+      </c>
+      <c r="J6">
+        <v>-0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C9" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="18">
+        <v>-0.45800000000000002</v>
+      </c>
+      <c r="E9" s="19">
+        <v>-1</v>
+      </c>
+      <c r="F9" s="22">
+        <v>1</v>
+      </c>
+      <c r="G9" s="22">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="19">
+        <v>-1</v>
+      </c>
+      <c r="I9" s="19">
+        <v>1</v>
+      </c>
+      <c r="J9" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C10" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="17">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="E10" s="19">
+        <v>-1</v>
+      </c>
+      <c r="F10" s="22">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="22">
+        <v>1</v>
+      </c>
+      <c r="H10" s="19">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="19">
+        <v>1</v>
+      </c>
+      <c r="J10" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="17">
+        <v>-0.375</v>
+      </c>
+      <c r="E11" s="19">
+        <v>-1</v>
+      </c>
+      <c r="F11" s="22">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="22">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="19">
+        <v>1</v>
+      </c>
+      <c r="I11" s="19">
+        <v>-1</v>
+      </c>
+      <c r="J11" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C12" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="17">
+        <v>-0.375</v>
+      </c>
+      <c r="E12" s="19">
+        <f>E9*E10</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="23">
+        <f>F9*F10</f>
+        <v>-1</v>
+      </c>
+      <c r="G12" s="23">
+        <f>G9*G10</f>
+        <v>-1</v>
+      </c>
+      <c r="H12" s="19">
+        <f>H9*H10</f>
+        <v>1</v>
+      </c>
+      <c r="I12" s="19">
+        <f>I9*I10</f>
+        <v>1</v>
+      </c>
+      <c r="J12" s="19">
+        <f>J9*J10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C13" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="17">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="E13" s="19">
+        <f>E9*E11</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="23">
+        <f>F9*F11</f>
+        <v>-1</v>
+      </c>
+      <c r="G13" s="23">
+        <f>G9*G11</f>
+        <v>1</v>
+      </c>
+      <c r="H13" s="19">
+        <f>H9*H11</f>
+        <v>-1</v>
+      </c>
+      <c r="I13" s="19">
+        <f>I9*I11</f>
+        <v>-1</v>
+      </c>
+      <c r="J13" s="19">
+        <f>J9*J11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C14" s="19"/>
+      <c r="D14" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="19">
+        <f>SUMPRODUCT($D9:$D13,E9:E13)</f>
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="F14" s="22">
+        <f>SUMPRODUCT($D9:$D13,F9:F13)</f>
+        <v>0.87199999999999989</v>
+      </c>
+      <c r="G14" s="22">
+        <f>SUMPRODUCT($D9:$D13,G9:G13)</f>
+        <v>0.62800000000000011</v>
+      </c>
+      <c r="H14" s="19">
+        <f>SUMPRODUCT($D9:$D13,H9:H13)</f>
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="I14" s="19">
+        <f>SUMPRODUCT($D9:$D13,I9:I13)</f>
+        <v>-0.45800000000000002</v>
+      </c>
+      <c r="J14" s="19">
+        <f>SUMPRODUCT($D9:$D13,J9:J13)</f>
+        <v>-1.788</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/10_Planning/DOE OQ Final Melting.xlsx
+++ b/10_Planning/DOE OQ Final Melting.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\lzm-validation\10_Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svegorov\Desktop\Local repos\lzm-validation\10_Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCCA103-E449-4F3C-97B4-CAED1076E143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Dict" sheetId="1" r:id="rId1"/>
@@ -21,13 +20,13 @@
     <definedName name="Threshold_koeff">#REF!</definedName>
     <definedName name="ПараметрыLZM">Dict!$F$2:$K$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Qwen__20250513_75cguv6ws" type="6" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Qwen__20250513_75cguv6ws" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="C:\Users\svegorov\Downloads\Qwen__20250513_75cguv6ws.txt" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="7">
         <textField/>
@@ -178,7 +177,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -596,7 +595,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Dict-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Dict-style" pivot="0" count="3">
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="firstRowStripe" dxfId="9"/>
       <tableStyleElement type="secondRowStripe" dxfId="8"/>
@@ -614,17 +613,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица1" displayName="Таблица1" ref="B1:J9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="B1:J9">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№ опыта" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Standard order" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="A (LP)" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="B (RS)" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="C (LT_S)" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="D (OR_F) = AB" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="E (LT_F) = AC" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="ID образцов" dataDxfId="0"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Столбец1"/>
+    <tableColumn id="1" name="№ опыта" dataDxfId="7"/>
+    <tableColumn id="2" name="Standard order" dataDxfId="6"/>
+    <tableColumn id="3" name="A (LP)" dataDxfId="5"/>
+    <tableColumn id="4" name="B (RS)" dataDxfId="4"/>
+    <tableColumn id="5" name="C (LT_S)" dataDxfId="3"/>
+    <tableColumn id="6" name="D (OR_F) = AB" dataDxfId="2"/>
+    <tableColumn id="7" name="E (LT_F) = AC" dataDxfId="1"/>
+    <tableColumn id="8" name="ID образцов" dataDxfId="0"/>
+    <tableColumn id="9" name="Столбец1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -839,7 +838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1012,7 +1011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2001,7 +2000,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:J17">
+  <sortState ref="A10:J17">
     <sortCondition ref="B10:B17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2013,16 +2012,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB46042-25D5-4E26-9789-C7743895CDE5}">
-  <dimension ref="B3:J14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="E3" s="12">
         <v>0</v>
       </c>
@@ -2032,8 +2031,11 @@
       <c r="J3" s="15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
@@ -2053,65 +2055,71 @@
       </c>
       <c r="G4">
         <f>E4+F4*J4</f>
-        <v>290</v>
+        <v>340</v>
       </c>
       <c r="J4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+        <f>1*K3</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>0.12</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>0.14499999999999999</v>
+        <v>40</v>
       </c>
       <c r="E5">
         <f>(D5+C5)/2</f>
-        <v>0.13250000000000001</v>
+        <v>35</v>
       </c>
       <c r="F5">
         <f>D5-E5</f>
-        <v>1.2499999999999983E-2</v>
+        <v>5</v>
       </c>
       <c r="G5">
         <f>E5+F5*J5</f>
-        <v>0.15924999999999997</v>
+        <v>30.251975000000002</v>
       </c>
       <c r="J5">
-        <v>2.14</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+        <f>-0.29*K5*K3</f>
+        <v>-0.94960499999999981</v>
+      </c>
+      <c r="K5">
+        <v>2.1829999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>0.12</v>
       </c>
       <c r="D6">
-        <v>40</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="E6">
         <f>(D6+C6)/2</f>
-        <v>35</v>
+        <v>0.13250000000000001</v>
       </c>
       <c r="F6">
         <f>D6-E6</f>
-        <v>5</v>
+        <v>1.2499999999999983E-2</v>
       </c>
       <c r="G6">
         <f>E6+F6*J6</f>
-        <v>34.299999999999997</v>
+        <v>0.11715078125000003</v>
       </c>
       <c r="J6">
-        <v>-0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+        <f>-0.375*K5*K3</f>
+        <v>-1.2279374999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C9" s="17" t="s">
         <v>4</v>
       </c>
@@ -2137,7 +2145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C10" s="17" t="s">
         <v>7</v>
       </c>
@@ -2163,7 +2171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C11" s="17" t="s">
         <v>9</v>
       </c>
@@ -2189,7 +2197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C12" s="21" t="s">
         <v>39</v>
       </c>
@@ -2197,31 +2205,31 @@
         <v>-0.375</v>
       </c>
       <c r="E12" s="19">
-        <f>E9*E10</f>
+        <f t="shared" ref="E12:J12" si="0">E9*E10</f>
         <v>1</v>
       </c>
       <c r="F12" s="23">
-        <f>F9*F10</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="G12" s="23">
-        <f>G9*G10</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="H12" s="19">
-        <f>H9*H10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I12" s="19">
-        <f>I9*I10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J12" s="19">
-        <f>J9*J10</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C13" s="21" t="s">
         <v>40</v>
       </c>
@@ -2229,57 +2237,57 @@
         <v>-0.28999999999999998</v>
       </c>
       <c r="E13" s="19">
-        <f>E9*E11</f>
+        <f t="shared" ref="E13:J13" si="1">E9*E11</f>
         <v>1</v>
       </c>
       <c r="F13" s="23">
-        <f>F9*F11</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="G13" s="23">
-        <f>G9*G11</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H13" s="19">
-        <f>H9*H11</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="I13" s="19">
-        <f>I9*I11</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="J13" s="19">
-        <f>J9*J11</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C14" s="19"/>
       <c r="D14" s="20" t="s">
         <v>41</v>
       </c>
       <c r="E14" s="19">
-        <f>SUMPRODUCT($D9:$D13,E9:E13)</f>
+        <f t="shared" ref="E14:J14" si="2">SUMPRODUCT($D9:$D13,E9:E13)</f>
         <v>0.45800000000000002</v>
       </c>
       <c r="F14" s="22">
-        <f>SUMPRODUCT($D9:$D13,F9:F13)</f>
+        <f t="shared" si="2"/>
         <v>0.87199999999999989</v>
       </c>
       <c r="G14" s="22">
-        <f>SUMPRODUCT($D9:$D13,G9:G13)</f>
+        <f t="shared" si="2"/>
         <v>0.62800000000000011</v>
       </c>
       <c r="H14" s="19">
-        <f>SUMPRODUCT($D9:$D13,H9:H13)</f>
+        <f t="shared" si="2"/>
         <v>0.28799999999999998</v>
       </c>
       <c r="I14" s="19">
-        <f>SUMPRODUCT($D9:$D13,I9:I13)</f>
+        <f t="shared" si="2"/>
         <v>-0.45800000000000002</v>
       </c>
       <c r="J14" s="19">
-        <f>SUMPRODUCT($D9:$D13,J9:J13)</f>
+        <f t="shared" si="2"/>
         <v>-1.788</v>
       </c>
     </row>
